--- a/CashFlow/AJG_cashflow.xlsx
+++ b/CashFlow/AJG_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>473000000.0</v>
+        <v>866700000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>819000000.0</v>
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>533300000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>562400000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>-14400000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-139300000.0</v>
@@ -634,10 +630,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>-432000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>-796500000.0</v>
@@ -763,10 +757,8 @@
           <t>Accounts Payable Change</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>499300000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1154200000.0</v>
@@ -892,10 +884,8 @@
           <t>Change in payables and accrued liability</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>-553000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1154200000.0</v>
@@ -1021,10 +1011,8 @@
           <t>Income tax paid</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>41800000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>51800000.0</v>
@@ -1150,10 +1138,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>-148900000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-30000000.0</v>
@@ -1470,10 +1456,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>1930200000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1752500000.0</v>
@@ -1599,10 +1583,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>-97000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-99300000.0</v>
@@ -1728,10 +1710,8 @@
           <t>Net Aquisitions</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>-643700000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>-324300000.0</v>
@@ -1857,10 +1837,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>-1400000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-1400000.0</v>
@@ -1986,10 +1964,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>-78500000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>-104800000.0</v>
@@ -2117,10 +2093,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-739300000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-501200000.0</v>
@@ -2246,10 +2220,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-417200000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-80400000.0</v>
@@ -2379,10 +2351,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>125200000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>111900000.0</v>
@@ -2508,10 +2478,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-357400000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-347400000.0</v>
@@ -2637,10 +2605,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>-112100000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-104800000.0</v>
@@ -2766,10 +2732,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>-761500000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>-420700000.0</v>
@@ -2895,10 +2859,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>298300000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>119800000.0</v>
@@ -3028,10 +2990,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>727700000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>950400000.0</v>
@@ -3157,10 +3117,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>3574300000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2623900000.0</v>
@@ -3286,10 +3244,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>4302000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3574300000.0</v>
@@ -3415,10 +3371,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>73900000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>74500000.0</v>
@@ -3545,7 +3499,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-260000000.0</v>
+        <v>-357400000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-347400000.0</v>
@@ -3671,10 +3625,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>514899900.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>471299900.0</v>
@@ -3800,10 +3752,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-1400000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-1400000.0</v>
@@ -3929,10 +3879,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>125200000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>111900000.0</v>
